--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\me\Study\Selenium\Practice\VRT\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA8563-E5CA-4590-A9CB-30065B6A11AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB033BA-35EA-463B-BA5C-F6600537C326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3990" tabRatio="847" activeTab="1" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3990" tabRatio="847" firstSheet="10" activeTab="17" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidAstName" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
     <sheet name="ValidAstMaker" sheetId="15" r:id="rId14"/>
     <sheet name="InvalidAstLocation" sheetId="16" r:id="rId15"/>
     <sheet name="ValidAstLocation" sheetId="17" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId17"/>
-    <sheet name="AllAssetDetails" sheetId="19" r:id="rId18"/>
+    <sheet name="AllAssetDetails" sheetId="19" r:id="rId17"/>
+    <sheet name="tc147" sheetId="8" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -69,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Only +ve Integer Data</t>
@@ -84,7 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -93,7 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Only +ve Integer Data between 1-24
@@ -114,7 +114,85 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4C2154AD-42EF-4B40-B614-C0E650AE12A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A1D49A09-E5F3-41F2-8E60-B0135B0BA616}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> enter same value as entered in Size field</t>
         </r>
@@ -125,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -307,24 +385,9 @@
     <t>SizeUnit</t>
   </si>
   <si>
-    <t>ValFreq</t>
-  </si>
-  <si>
-    <t>ValFreqSize</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>cu ft</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>ColdChamber</t>
   </si>
   <si>
@@ -626,13 +689,31 @@
   </si>
   <si>
     <t>Asset ID accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Asset147</t>
+  </si>
+  <si>
+    <t>Manufacturer147</t>
+  </si>
+  <si>
+    <t>Location147</t>
+  </si>
+  <si>
+    <t>Model147</t>
+  </si>
+  <si>
+    <t>Test for successful creation of Asset147 with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,14 +733,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1088,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1120,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,7 +1220,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,13 +1240,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,13 +1266,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1244,13 +1318,13 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1270,13 +1344,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1296,13 +1370,13 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1322,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,13 +1422,13 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1374,13 +1448,13 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,13 +1474,13 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1426,13 +1500,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1478,13 +1552,13 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1504,13 +1578,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,13 +1604,13 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1556,13 +1630,13 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1608,13 +1682,13 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,13 +1708,13 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1660,13 +1734,13 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1686,13 +1760,13 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1712,13 +1786,13 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1738,13 +1812,13 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1764,13 +1838,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1916,7 @@
         <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,10 +1959,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1908,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,10 +2005,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,10 +2028,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,10 +2051,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,10 +2074,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2023,10 +2097,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2046,10 +2120,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2176,7 @@
         <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2125,10 +2199,10 @@
         <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2151,10 +2225,10 @@
         <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,10 +2251,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,10 +2277,10 @@
         <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2229,10 +2303,10 @@
         <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2255,10 +2329,10 @@
         <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2281,10 +2355,10 @@
         <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2307,10 +2381,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2333,10 +2407,10 @@
         <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2359,10 +2433,10 @@
         <v>48</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2385,10 +2459,10 @@
         <v>48</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2411,10 +2485,10 @@
         <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2437,10 +2511,10 @@
         <v>48</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2463,10 +2537,10 @@
         <v>48</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2489,10 +2563,10 @@
         <v>48</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2515,10 +2589,10 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,10 +2615,10 @@
         <v>48</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2567,10 +2641,10 @@
         <v>48</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2593,10 +2667,10 @@
         <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2619,10 +2693,10 @@
         <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2645,10 +2719,10 @@
         <v>48</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2671,10 +2745,10 @@
         <v>48</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,10 +2771,10 @@
         <v>48</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2723,10 +2797,10 @@
         <v>48</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2752,7 +2826,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2898,7 @@
         <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2870,7 +2944,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2916,7 +2990,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2939,7 +3013,7 @@
         <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2962,7 +3036,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,7 +3082,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3105,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3076,12 +3150,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -3093,15 +3167,15 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -3113,15 +3187,15 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -3133,15 +3207,15 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -3153,15 +3227,15 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -3173,15 +3247,15 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3193,15 +3267,15 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3213,15 +3287,15 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -3233,15 +3307,15 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -3253,15 +3327,15 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -3273,15 +3347,15 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -3293,15 +3367,15 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -3313,15 +3387,15 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -3333,15 +3407,15 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -3353,15 +3427,15 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -3373,15 +3447,15 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -3393,15 +3467,15 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -3413,15 +3487,15 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -3433,15 +3507,15 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -3453,15 +3527,15 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -3473,15 +3547,15 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -3493,15 +3567,15 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -3513,15 +3587,15 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -3533,15 +3607,15 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -3553,15 +3627,15 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -3573,15 +3647,15 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -3590,13 +3664,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3645,7 +3719,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -3654,10 +3728,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,7 +3748,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3691,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3708,7 +3782,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,7 +3799,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,7 +3816,7 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,7 +3833,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3776,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3821,12 +3895,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -3835,18 +3909,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -3855,18 +3929,18 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -3875,18 +3949,18 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -3895,18 +3969,18 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -3915,18 +3989,18 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -3935,18 +4009,18 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -3955,18 +4029,18 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -3975,18 +4049,18 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -3995,18 +4069,18 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -4015,18 +4089,18 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -4035,18 +4109,18 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -4055,18 +4129,18 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -4075,18 +4149,18 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -4095,18 +4169,18 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -4115,18 +4189,18 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -4135,18 +4209,18 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -4155,18 +4229,18 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -4175,18 +4249,18 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -4195,18 +4269,18 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -4215,18 +4289,18 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -4235,18 +4309,18 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -4255,18 +4329,18 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -4275,18 +4349,18 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -4295,18 +4369,18 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B26" s="6">
         <v>1</v>
@@ -4315,18 +4389,18 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -4335,13 +4409,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4390,7 +4464,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -4399,15 +4473,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -4416,7 +4490,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>49</v>
@@ -4424,7 +4498,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -4433,15 +4507,15 @@
         <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -4450,15 +4524,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -4467,15 +4541,15 @@
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
@@ -4484,32 +4558,32 @@
         <v>5</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
@@ -4518,10 +4592,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4531,418 +4605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6BA4E0-0C67-45A7-85A8-9BF5353A1E8A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,48 +4645,48 @@
         <v>59</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5029,11 +4696,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF0D48-3FFE-4E63-90D8-6D4600BE85B6}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5082,7 +4841,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5105,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5128,7 +4887,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5151,7 +4910,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5174,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5197,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5220,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5243,7 +5002,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -5321,7 +5080,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5347,7 +5106,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5367,13 +5126,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5393,13 +5152,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5419,13 +5178,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5445,13 +5204,13 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5471,13 +5230,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5497,13 +5256,13 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5523,13 +5282,13 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5549,13 +5308,13 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5575,13 +5334,13 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5601,13 +5360,13 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5627,13 +5386,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5653,13 +5412,13 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5679,13 +5438,13 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5705,13 +5464,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5731,13 +5490,13 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5757,13 +5516,13 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5783,13 +5542,13 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5809,13 +5568,13 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5835,13 +5594,13 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -5861,13 +5620,13 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -5887,13 +5646,13 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5913,13 +5672,13 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5939,13 +5698,13 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -5965,13 +5724,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6033,7 +5792,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6056,7 +5815,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6079,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6102,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6125,7 +5884,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6148,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6171,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6194,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6239,7 +5998,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -6271,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6297,7 +6056,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6323,7 +6082,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6349,7 +6108,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6375,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -6401,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -6427,7 +6186,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6453,7 +6212,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -6479,7 +6238,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -6505,7 +6264,7 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6531,7 +6290,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6557,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6583,7 +6342,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6609,7 +6368,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6635,7 +6394,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6661,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6687,7 +6446,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6713,7 +6472,7 @@
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6739,7 +6498,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6765,7 +6524,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -6791,7 +6550,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6817,7 +6576,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6843,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6869,7 +6628,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6931,7 +6690,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6954,7 +6713,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6977,7 +6736,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7000,7 +6759,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7023,7 +6782,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7046,7 +6805,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7069,7 +6828,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7092,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7115,7 +6874,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7138,7 +6897,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -7186,7 +6945,7 @@
         <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7739,7 +7498,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -7759,7 +7518,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -7779,7 +7538,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7799,7 +7558,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -7819,7 +7578,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -7839,7 +7598,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -7859,7 +7618,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -7879,7 +7638,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -7899,7 +7658,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -7919,7 +7678,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -7980,7 +7739,7 @@
         <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -8000,13 +7759,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8026,13 +7785,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8055,10 +7814,10 @@
         <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8081,10 +7840,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8104,13 +7863,13 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8130,13 +7889,13 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8156,13 +7915,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8182,13 +7941,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8208,13 +7967,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8234,13 +7993,13 @@
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8260,13 +8019,13 @@
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8286,13 +8045,13 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8312,13 +8071,13 @@
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8338,13 +8097,13 @@
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8367,10 +8126,10 @@
         <v>111111</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8390,13 +8149,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8416,13 +8175,13 @@
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8442,13 +8201,13 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -8468,13 +8227,13 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8494,13 +8253,13 @@
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8520,13 +8279,13 @@
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8546,13 +8305,13 @@
         <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8572,13 +8331,13 @@
         <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8598,13 +8357,13 @@
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -8627,10 +8386,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8653,10 +8412,10 @@
         <v>-1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -8679,10 +8438,10 @@
         <v>99999.998999999996</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8705,10 +8464,10 @@
         <v>11</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB033BA-35EA-463B-BA5C-F6600537C326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81295AED-D4ED-4163-8F1B-EC33E74952B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3990" tabRatio="847" firstSheet="10" activeTab="17" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="7" activeTab="9" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidAstName" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="169">
   <si>
     <t>Name</t>
   </si>
@@ -355,21 +355,12 @@
     <t>3</t>
   </si>
   <si>
-    <t>a,</t>
-  </si>
-  <si>
-    <t>a.</t>
-  </si>
-  <si>
     <t>Type should have at least one letter or one digit</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Type accepts alpha numeric and special characters like -,_ ,slash (forward and backward).</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -589,9 +580,6 @@
     <t>Manufacturer is mandatory, please select Manufacturer</t>
   </si>
   <si>
-    <t>Manufacturer accepts alpha numeric and special characters like -,_ ,slash (forward and backward).</t>
-  </si>
-  <si>
     <t>Pforzheim</t>
   </si>
   <si>
@@ -601,9 +589,6 @@
     <t>feet</t>
   </si>
   <si>
-    <t>meter</t>
-  </si>
-  <si>
     <t>AMPHENOL</t>
   </si>
   <si>
@@ -619,9 +604,6 @@
     <t>Location should have at least one letter or one digit</t>
   </si>
   <si>
-    <t>Location accepts alpha numeric and special characters like -,_ ,slash (forward and backward).</t>
-  </si>
-  <si>
     <t>AssetLocationTest</t>
   </si>
   <si>
@@ -707,6 +689,27 @@
   </si>
   <si>
     <t>Test for successful creation of Asset147 with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
+  </si>
+  <si>
+    <t>Type accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>Manufacturer accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
+  </si>
+  <si>
+    <t>Location accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>testID</t>
+  </si>
+  <si>
+    <t>testAsset</t>
   </si>
 </sst>
 </file>
@@ -1130,14 +1133,13 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1162,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -1175,8 +1177,8 @@
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1194,15 +1196,15 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1220,15 +1222,15 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1240,21 +1242,21 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1266,21 +1268,21 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1292,21 +1294,21 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
+      <c r="B7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1318,21 +1320,21 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1344,21 +1346,21 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1370,21 +1372,21 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
+      <c r="B10" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1396,21 +1398,21 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1422,21 +1424,21 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1448,21 +1450,21 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1474,21 +1476,21 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
+      <c r="B14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1500,21 +1502,21 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1526,21 +1528,21 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
+      <c r="B16" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1552,21 +1554,21 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
+      <c r="B17" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1578,21 +1580,21 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
+      <c r="B18" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1604,21 +1606,21 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
+      <c r="B19" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1630,21 +1632,21 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1656,21 +1658,21 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
+      <c r="B21" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1682,21 +1684,21 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4">
-        <v>1</v>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1708,21 +1710,21 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
+      <c r="B23" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1734,21 +1736,21 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
+      <c r="B24" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1760,21 +1762,21 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4">
-        <v>1</v>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1786,21 +1788,21 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
+      <c r="B26" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1812,21 +1814,21 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="4">
-        <v>1</v>
+      <c r="B27" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1838,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1855,17 +1857,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF52D8-02BE-4A06-B1E9-330FB0B7B8CA}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G1"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1890,24 +1892,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1916,159 +1918,159 @@
         <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2077,53 +2079,7 @@
         <v>90</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2137,14 +2093,14 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -2170,27 +2126,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2199,24 +2155,24 @@
         <v>48</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -2225,24 +2181,24 @@
         <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -2251,24 +2207,24 @@
         <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2277,24 +2233,24 @@
         <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2303,24 +2259,24 @@
         <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -2329,24 +2285,24 @@
         <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2355,24 +2311,24 @@
         <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2381,24 +2337,24 @@
         <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -2407,24 +2363,24 @@
         <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -2433,24 +2389,24 @@
         <v>48</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -2459,24 +2415,24 @@
         <v>48</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -2485,24 +2441,24 @@
         <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -2511,24 +2467,24 @@
         <v>48</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2537,24 +2493,24 @@
         <v>48</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -2563,24 +2519,24 @@
         <v>48</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -2589,24 +2545,24 @@
         <v>48</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -2615,24 +2571,24 @@
         <v>48</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -2641,24 +2597,24 @@
         <v>48</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -2667,24 +2623,24 @@
         <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -2693,24 +2649,24 @@
         <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -2719,24 +2675,24 @@
         <v>48</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -2745,24 +2701,24 @@
         <v>48</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -2771,24 +2727,24 @@
         <v>48</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
@@ -2797,24 +2753,24 @@
         <v>48</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -2826,7 +2782,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2841,13 +2797,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -2872,24 +2828,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -2898,21 +2854,21 @@
         <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -2926,16 +2882,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -2944,21 +2900,21 @@
         <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2972,16 +2928,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2990,21 +2946,21 @@
         <v>45</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3013,21 +2969,21 @@
         <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -3036,21 +2992,21 @@
         <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -3064,16 +3020,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3082,21 +3038,21 @@
         <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -3105,7 +3061,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3119,14 +3075,14 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3150,15 +3106,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3167,18 +3123,18 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3187,18 +3143,18 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3207,18 +3163,18 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3227,18 +3183,18 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3247,18 +3203,18 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3267,18 +3223,18 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3287,18 +3243,18 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3307,18 +3263,18 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3327,18 +3283,18 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3347,18 +3303,18 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3367,18 +3323,18 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3387,18 +3343,18 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3407,18 +3363,18 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3427,18 +3383,18 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3447,18 +3403,18 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3467,18 +3423,18 @@
         <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3487,18 +3443,18 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3507,18 +3463,18 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3527,18 +3483,18 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3547,18 +3503,18 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3567,18 +3523,18 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3587,18 +3543,18 @@
         <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3607,18 +3563,18 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3627,18 +3583,18 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -3647,30 +3603,30 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
         <v>125</v>
       </c>
-      <c r="E27" t="s">
-        <v>129</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3688,13 +3644,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3719,27 +3675,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3748,15 +3704,15 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3765,15 +3721,15 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3782,15 +3738,15 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3799,15 +3755,15 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3816,15 +3772,15 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3833,15 +3789,15 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3850,7 +3806,7 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3864,14 +3820,14 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3895,527 +3851,527 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4433,13 +4389,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -4463,139 +4419,139 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4609,7 +4565,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4636,57 +4592,57 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4700,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,57 +4685,57 @@
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4793,7 +4749,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4826,7 +4782,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -4841,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4849,7 +4805,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4864,7 +4820,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,7 +4828,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -4887,7 +4843,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,7 +4851,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -4910,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4918,7 +4874,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4933,7 +4889,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4941,7 +4897,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4956,7 +4912,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4964,7 +4920,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4979,7 +4935,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4987,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -5002,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5017,12 +4973,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -5048,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -5059,7 +5015,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -5080,12 +5036,12 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -5106,12 +5062,12 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -5126,18 +5082,18 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -5152,18 +5108,18 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -5178,18 +5134,18 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -5204,18 +5160,18 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -5230,18 +5186,18 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -5256,18 +5212,18 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
@@ -5282,18 +5238,18 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -5308,18 +5264,18 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>21</v>
@@ -5334,18 +5290,18 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -5360,18 +5316,18 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>26</v>
@@ -5386,18 +5342,18 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -5412,18 +5368,18 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>23</v>
@@ -5438,18 +5394,18 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>24</v>
@@ -5464,18 +5420,18 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>27</v>
@@ -5490,18 +5446,18 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>29</v>
@@ -5516,18 +5472,18 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>25</v>
@@ -5542,18 +5498,18 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>30</v>
@@ -5568,18 +5524,18 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -5594,18 +5550,18 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>33</v>
@@ -5620,18 +5576,18 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>34</v>
@@ -5646,18 +5602,18 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -5672,18 +5628,18 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>36</v>
@@ -5698,18 +5654,18 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>35</v>
@@ -5724,13 +5680,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5744,7 +5700,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5774,7 +5730,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -5792,12 +5748,12 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>49</v>
@@ -5815,12 +5771,12 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -5838,12 +5794,12 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -5861,12 +5817,12 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -5884,12 +5840,12 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -5907,12 +5863,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -5930,12 +5886,12 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -5953,7 +5909,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5963,21 +5919,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C599F558-8C31-43A4-A408-30DBEA8C34EE}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5998,7 +5954,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
@@ -6011,11 +5967,11 @@
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -6024,21 +5980,21 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3">
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -6050,21 +6006,21 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3">
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -6076,21 +6032,21 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
@@ -6102,21 +6058,21 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -6128,21 +6084,21 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>17</v>
@@ -6154,21 +6110,21 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -6180,21 +6136,21 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -6206,21 +6162,21 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
@@ -6232,21 +6188,21 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -6258,21 +6214,21 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>21</v>
@@ -6284,21 +6240,21 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>22</v>
@@ -6310,21 +6266,21 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>26</v>
@@ -6336,21 +6292,21 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>28</v>
@@ -6362,21 +6318,21 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>23</v>
@@ -6388,21 +6344,21 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -6414,21 +6370,21 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>27</v>
@@ -6440,21 +6396,21 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>29</v>
@@ -6466,21 +6422,21 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>25</v>
@@ -6492,21 +6448,21 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
@@ -6518,21 +6474,21 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -6544,21 +6500,21 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>33</v>
@@ -6570,21 +6526,21 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>34</v>
@@ -6596,21 +6552,21 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>37</v>
@@ -6622,27 +6578,82 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8A104-C35D-4743-8EFD-FAF5FDC57010}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6672,10 +6683,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>38</v>
@@ -6690,15 +6701,15 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -6713,15 +6724,15 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -6736,15 +6747,15 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -6759,15 +6770,15 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -6782,15 +6793,15 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -6805,15 +6816,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -6828,15 +6839,15 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -6851,53 +6862,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6907,17 +6872,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD716426-05DC-4667-9729-BE8BBDF59B1E}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -6942,24 +6907,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -6968,21 +6933,21 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -6991,21 +6956,21 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -7014,21 +6979,21 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -7037,21 +7002,21 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -7060,21 +7025,21 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -7083,21 +7048,21 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -7106,21 +7071,21 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -7129,21 +7094,21 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -7152,21 +7117,21 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -7175,21 +7140,21 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -7198,21 +7163,21 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -7221,21 +7186,21 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -7244,21 +7209,21 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -7267,21 +7232,21 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -7290,21 +7255,21 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -7313,21 +7278,21 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -7336,21 +7301,21 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -7359,21 +7324,21 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -7382,21 +7347,21 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -7405,21 +7370,21 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -7428,21 +7393,21 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -7451,7 +7416,53 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -7462,10 +7473,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779E0B9-99AC-4325-9CDB-FBC313E4BAE4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7487,18 +7498,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -7512,13 +7523,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -7532,13 +7543,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -7552,13 +7563,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -7572,13 +7583,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -7592,13 +7603,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -7612,13 +7623,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -7632,13 +7643,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -7648,46 +7659,6 @@
       </c>
       <c r="F9" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -7697,17 +7668,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F9F5EE-9459-42ED-9CA6-D54FE715BC41}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7733,79 +7704,79 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -7814,24 +7785,24 @@
         <v>38</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -7840,284 +7811,284 @@
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -8126,258 +8097,258 @@
         <v>111111</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
         <v>79</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -8386,24 +8357,24 @@
         <v>0</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -8412,24 +8383,24 @@
         <v>-1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -8438,24 +8409,24 @@
         <v>99999.998999999996</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -8464,10 +8435,62 @@
         <v>11</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81295AED-D4ED-4163-8F1B-EC33E74952B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97056AAA-8797-4012-A5E7-8CBC8064F8B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="7" activeTab="9" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="20490" windowHeight="10500" tabRatio="847" firstSheet="11" activeTab="18" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidAstName" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,8 @@
     <sheet name="InvalidAstLocation" sheetId="16" r:id="rId15"/>
     <sheet name="ValidAstLocation" sheetId="17" r:id="rId16"/>
     <sheet name="AllAssetDetails" sheetId="19" r:id="rId17"/>
-    <sheet name="tc147" sheetId="8" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId18"/>
+    <sheet name="tc147" sheetId="8" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -203,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="170">
   <si>
     <t>Name</t>
   </si>
@@ -673,24 +674,9 @@
     <t>Asset ID accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
   </si>
   <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Asset147</t>
-  </si>
-  <si>
-    <t>Manufacturer147</t>
-  </si>
-  <si>
-    <t>Location147</t>
-  </si>
-  <si>
     <t>Model147</t>
   </si>
   <si>
-    <t>Test for successful creation of Asset147 with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
-  </si>
-  <si>
     <t>Type accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
   </si>
   <si>
@@ -710,6 +696,24 @@
   </si>
   <si>
     <t>testAsset</t>
+  </si>
+  <si>
+    <t>Asset147b</t>
+  </si>
+  <si>
+    <t>147b</t>
+  </si>
+  <si>
+    <t>testManufacturer147</t>
+  </si>
+  <si>
+    <t>testLocation147</t>
+  </si>
+  <si>
+    <t>Test for successful creation of Asset147b with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1204,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1230,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1256,7 +1260,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1282,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1308,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1334,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1360,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1386,7 +1390,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1412,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1438,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1464,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1490,7 +1494,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1516,7 +1520,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1542,7 +1546,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1568,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1594,7 +1598,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1620,7 +1624,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1646,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1672,7 +1676,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1698,7 +1702,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1724,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1750,7 +1754,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1776,7 +1780,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1802,7 +1806,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1828,7 +1832,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1859,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BF52D8-02BE-4A06-B1E9-330FB0B7B8CA}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
@@ -1900,10 +1904,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1923,10 +1927,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1946,10 +1950,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1969,10 +1973,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1992,10 +1996,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2015,10 +2019,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2038,10 +2042,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2061,10 +2065,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2137,10 +2141,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2163,10 +2167,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2189,10 +2193,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2215,10 +2219,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2241,10 +2245,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2267,10 +2271,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2293,10 +2297,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2319,10 +2323,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2345,10 +2349,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2371,10 +2375,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2397,10 +2401,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2423,10 +2427,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2449,10 +2453,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2475,10 +2479,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2501,10 +2505,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2527,10 +2531,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2553,10 +2557,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2579,10 +2583,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2605,10 +2609,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2631,10 +2635,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2657,10 +2661,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2683,10 +2687,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2709,10 +2713,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2735,10 +2739,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2761,10 +2765,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2836,10 +2840,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2859,10 +2863,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2882,10 +2886,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2905,10 +2909,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2928,10 +2932,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2951,10 +2955,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2974,10 +2978,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2997,10 +3001,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3020,10 +3024,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3043,10 +3047,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3114,7 +3118,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3126,7 +3130,7 @@
         <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,7 +3138,7 @@
         <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3146,7 +3150,7 @@
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3154,7 +3158,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3166,7 +3170,7 @@
         <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,7 +3178,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3186,7 +3190,7 @@
         <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3194,7 +3198,7 @@
         <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3206,7 +3210,7 @@
         <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,7 +3218,7 @@
         <v>126</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3226,7 +3230,7 @@
         <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,7 +3238,7 @@
         <v>126</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3246,7 +3250,7 @@
         <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,7 +3258,7 @@
         <v>126</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3266,7 +3270,7 @@
         <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3274,7 +3278,7 @@
         <v>126</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3286,7 +3290,7 @@
         <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,7 +3298,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3306,7 +3310,7 @@
         <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3314,7 +3318,7 @@
         <v>126</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3326,7 +3330,7 @@
         <v>125</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3334,7 +3338,7 @@
         <v>126</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3346,7 +3350,7 @@
         <v>125</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3354,7 +3358,7 @@
         <v>126</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3366,7 +3370,7 @@
         <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3374,7 +3378,7 @@
         <v>126</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3386,7 +3390,7 @@
         <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,7 +3398,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3406,7 +3410,7 @@
         <v>125</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3414,7 +3418,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3426,7 +3430,7 @@
         <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,7 +3438,7 @@
         <v>126</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3446,7 +3450,7 @@
         <v>125</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,7 +3458,7 @@
         <v>126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3466,7 +3470,7 @@
         <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3474,7 +3478,7 @@
         <v>126</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3486,7 +3490,7 @@
         <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,7 +3498,7 @@
         <v>126</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3506,7 +3510,7 @@
         <v>125</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3514,7 +3518,7 @@
         <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3526,7 +3530,7 @@
         <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3534,7 +3538,7 @@
         <v>126</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3546,7 +3550,7 @@
         <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3554,7 +3558,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3566,7 +3570,7 @@
         <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3574,7 +3578,7 @@
         <v>126</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3586,7 +3590,7 @@
         <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3594,7 +3598,7 @@
         <v>126</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -3614,7 +3618,7 @@
         <v>126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -3675,10 +3679,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3692,10 +3696,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3709,10 +3713,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3726,10 +3730,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3743,10 +3747,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3760,10 +3764,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3777,10 +3781,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3794,10 +3798,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3859,7 +3863,7 @@
         <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3871,7 +3875,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3879,7 +3883,7 @@
         <v>133</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3891,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,7 +3903,7 @@
         <v>133</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3911,7 +3915,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,7 +3923,7 @@
         <v>133</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3931,7 +3935,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3939,7 +3943,7 @@
         <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3951,7 +3955,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,7 +3963,7 @@
         <v>133</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3971,7 +3975,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3979,7 +3983,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3991,7 +3995,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3999,7 +4003,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4011,7 +4015,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4019,7 +4023,7 @@
         <v>133</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4031,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,7 +4043,7 @@
         <v>133</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4051,7 +4055,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4059,7 +4063,7 @@
         <v>133</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4071,7 +4075,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4079,7 +4083,7 @@
         <v>133</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -4091,7 +4095,7 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4099,7 +4103,7 @@
         <v>133</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -4111,7 +4115,7 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4119,7 +4123,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -4131,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4139,7 +4143,7 @@
         <v>133</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -4151,7 +4155,7 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4159,7 +4163,7 @@
         <v>133</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -4171,7 +4175,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4179,7 +4183,7 @@
         <v>133</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -4191,7 +4195,7 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4199,7 +4203,7 @@
         <v>133</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -4211,7 +4215,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,7 +4223,7 @@
         <v>133</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -4231,7 +4235,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4239,7 +4243,7 @@
         <v>133</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -4251,7 +4255,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4259,7 +4263,7 @@
         <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -4271,7 +4275,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4279,7 +4283,7 @@
         <v>133</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4291,7 +4295,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4299,7 +4303,7 @@
         <v>133</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -4311,7 +4315,7 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,7 +4323,7 @@
         <v>133</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -4331,7 +4335,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4339,7 +4343,7 @@
         <v>133</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -4359,7 +4363,7 @@
         <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -4420,10 +4424,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -4437,10 +4441,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -4454,10 +4458,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>5</v>
@@ -4471,10 +4475,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>5</v>
@@ -4488,10 +4492,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>5</v>
@@ -4505,10 +4509,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>5</v>
@@ -4522,10 +4526,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -4539,10 +4543,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>5</v>
@@ -4653,11 +4657,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87744AE-AE5A-4295-993D-C7CCE3ABDC2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4705,28 +4721,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>152</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>49</v>
@@ -4735,7 +4751,7 @@
         <v>149</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4798,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -4805,7 +4821,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4828,7 +4844,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -4851,7 +4867,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -4874,7 +4890,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4897,7 +4913,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4920,7 +4936,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4943,7 +4959,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -5015,7 +5031,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -5041,7 +5057,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -5067,7 +5083,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -5093,7 +5109,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -5119,7 +5135,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -5145,7 +5161,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -5171,7 +5187,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -5197,7 +5213,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -5223,7 +5239,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
@@ -5249,7 +5265,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -5275,7 +5291,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>21</v>
@@ -5301,7 +5317,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -5327,7 +5343,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>26</v>
@@ -5353,7 +5369,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -5379,7 +5395,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>23</v>
@@ -5405,7 +5421,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>24</v>
@@ -5431,7 +5447,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>27</v>
@@ -5457,7 +5473,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>29</v>
@@ -5483,7 +5499,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>25</v>
@@ -5509,7 +5525,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>30</v>
@@ -5535,7 +5551,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -5561,7 +5577,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>33</v>
@@ -5587,7 +5603,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>34</v>
@@ -5613,7 +5629,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -5639,7 +5655,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>36</v>
@@ -5665,7 +5681,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>35</v>
@@ -5730,7 +5746,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -5753,7 +5769,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>49</v>
@@ -5776,7 +5792,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -5799,7 +5815,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -5822,7 +5838,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -5845,7 +5861,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -5868,7 +5884,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -5891,7 +5907,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -6032,7 +6048,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
@@ -6058,7 +6074,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
@@ -6084,7 +6100,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -6110,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
@@ -6121,10 +6137,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -6136,7 +6152,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
@@ -6147,10 +6163,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -6162,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
@@ -6173,10 +6189,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
@@ -6188,7 +6204,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
@@ -6199,10 +6215,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -6214,7 +6230,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
@@ -6225,10 +6241,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>21</v>
@@ -6240,7 +6256,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
@@ -6251,10 +6267,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>22</v>
@@ -6266,7 +6282,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
@@ -6277,10 +6293,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>26</v>
@@ -6292,7 +6308,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
@@ -6303,10 +6319,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>28</v>
@@ -6318,7 +6334,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
@@ -6329,10 +6345,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>23</v>
@@ -6344,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
@@ -6355,10 +6371,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -6370,7 +6386,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
@@ -6381,10 +6397,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>27</v>
@@ -6396,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
@@ -6407,10 +6423,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>29</v>
@@ -6422,7 +6438,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
@@ -6433,10 +6449,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>25</v>
@@ -6448,7 +6464,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
@@ -6459,10 +6475,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
@@ -6474,7 +6490,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
@@ -6485,10 +6501,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -6500,7 +6516,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
@@ -6511,10 +6527,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>33</v>
@@ -6526,7 +6542,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
@@ -6537,10 +6553,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>34</v>
@@ -6552,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
@@ -6563,10 +6579,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>37</v>
@@ -6578,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
@@ -6589,10 +6605,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>36</v>
@@ -6604,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
@@ -6615,10 +6631,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -6630,7 +6646,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
@@ -6683,10 +6699,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>38</v>
@@ -6706,10 +6722,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -6729,10 +6745,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -6752,10 +6768,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -6775,10 +6791,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -6798,10 +6814,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -6821,10 +6837,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -6844,10 +6860,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -7191,10 +7207,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -7214,10 +7230,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -7237,10 +7253,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -7260,10 +7276,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -7283,10 +7299,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -7306,10 +7322,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -7329,10 +7345,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -7352,10 +7368,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -7375,10 +7391,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -7398,10 +7414,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -7421,10 +7437,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -7444,10 +7460,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -7503,10 +7519,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>58</v>
@@ -7523,10 +7539,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>58</v>
@@ -7543,10 +7559,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>58</v>
@@ -7563,10 +7579,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>58</v>
@@ -7583,10 +7599,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>58</v>
@@ -7603,10 +7619,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
@@ -7623,10 +7639,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>58</v>
@@ -7643,10 +7659,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>58</v>
@@ -8209,10 +8225,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -8235,10 +8251,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -8261,10 +8277,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -8287,10 +8303,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -8313,10 +8329,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -8339,10 +8355,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -8365,10 +8381,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -8391,10 +8407,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -8417,10 +8433,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -8443,10 +8459,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -8469,10 +8485,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97056AAA-8797-4012-A5E7-8CBC8064F8B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FB6534-9C31-4C74-8562-9CD69A7776B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="20490" windowHeight="10500" tabRatio="847" firstSheet="11" activeTab="18" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="11" activeTab="19" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidAstName" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="AllAssetDetails" sheetId="19" r:id="rId17"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId18"/>
     <sheet name="tc147" sheetId="8" r:id="rId19"/>
+    <sheet name="tc149" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -203,8 +204,110 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EC7488E6-A897-4FD3-BAB5-85E9EF760D77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{48F36AC3-FA47-41A9-AC2F-ADF178E66A37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Default Size Units Like cu ft/m/in</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0F9BD116-B952-4ACD-A2CD-8F199466C54E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -714,13 +817,34 @@
   </si>
   <si>
     <t>volume</t>
+  </si>
+  <si>
+    <t>Asset149</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>149-Manufacturer</t>
+  </si>
+  <si>
+    <t>149location</t>
+  </si>
+  <si>
+    <t>Model149</t>
+  </si>
+  <si>
+    <t>cu ft</t>
+  </si>
+  <si>
+    <t>Test for successful creation of Asset149 with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +872,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -835,6 +972,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ghadei, Manoj (Amphenol-AS)" id="{2B5AC18C-CBD4-4A93-B399-6D04820C6454}" userId="Ghadei, Manoj (Amphenol-AS)" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4672,7 +4815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -4980,6 +5123,98 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2977AC3-E2DD-4754-BCA4-066831CE45B8}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FB6534-9C31-4C74-8562-9CD69A7776B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0723D690-2EE4-4EBF-9A3F-23F2600374EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="11" activeTab="19" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="12" activeTab="21" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidAstName" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="Sheet1" sheetId="20" r:id="rId18"/>
     <sheet name="tc147" sheetId="8" r:id="rId19"/>
     <sheet name="tc149" sheetId="21" r:id="rId20"/>
+    <sheet name="tcasst011" sheetId="22" r:id="rId21"/>
+    <sheet name="tcasst014" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -306,8 +308,308 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4CF7F98A-9EDA-400C-AF1A-312A4DD9E354}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D8EA7BD9-0F3F-44D6-9A56-B87CB1CE311D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Default Size Units Like cu ft/m/in</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9886B2F3-C1AD-40A7-A0D3-EAF19B360FFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{637C303C-5010-42AF-A522-AC76EAC6092D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Unique data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F4CCC0A0-87E6-4986-8182-0D45D7E57D71}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Unique data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C26356A2-85F8-49E1-BF71-D3E706EF10C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert data with the 1st letter as Unique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C15F0743-5C8F-4C39-906F-078889D33126}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert data with the 1st letter as Unique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0DEADBE6-39AD-40FD-9319-9F5DF77521A0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4394BABF-E99F-4DC2-B801-4E4B33AFBF14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Default Size Units Like cu ft/m/in</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9F7EDF02-5713-4215-9C51-10A935007AC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -838,6 +1140,39 @@
   </si>
   <si>
     <t>Test for successful creation of Asset149 with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
+  </si>
+  <si>
+    <t>Asset011</t>
+  </si>
+  <si>
+    <t>Model-11</t>
+  </si>
+  <si>
+    <t>ASST011-Verify if click on the Type filter user is able to filter all the assets correctly by Asset Type</t>
+  </si>
+  <si>
+    <t>Model-14</t>
+  </si>
+  <si>
+    <t>1-Manufacturer</t>
+  </si>
+  <si>
+    <t>1-location</t>
+  </si>
+  <si>
+    <t>Asset019</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>6-Manufacturer</t>
+  </si>
+  <si>
+    <t>6-location</t>
+  </si>
+  <si>
+    <t>ASST014-</t>
   </si>
 </sst>
 </file>
@@ -5130,7 +5465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2977AC3-E2DD-4754-BCA4-066831CE45B8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5210,6 +5545,190 @@
       </c>
       <c r="K2" s="12" t="s">
         <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0EC7E7-0A30-41F4-9875-DC335ECFE7AE}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36C667C-6956-48CC-B8BF-D3D1D233432F}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0723D690-2EE4-4EBF-9A3F-23F2600374EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AA6BC0-7198-422A-BAA7-0CA0431A2DFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="12" activeTab="21" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10500" tabRatio="847" firstSheet="12" activeTab="21" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidAstName" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -1142,15 +1142,9 @@
     <t>Test for successful creation of Asset149 with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
   </si>
   <si>
-    <t>Asset011</t>
-  </si>
-  <si>
     <t>Model-11</t>
   </si>
   <si>
-    <t>ASST011-Verify if click on the Type filter user is able to filter all the assets correctly by Asset Type</t>
-  </si>
-  <si>
     <t>Model-14</t>
   </si>
   <si>
@@ -1160,19 +1154,58 @@
     <t>1-location</t>
   </si>
   <si>
-    <t>Asset019</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>6-Manufacturer</t>
-  </si>
-  <si>
-    <t>6-location</t>
-  </si>
-  <si>
-    <t>ASST014-</t>
+    <t>Asset01</t>
+  </si>
+  <si>
+    <t>ASST014- Test</t>
+  </si>
+  <si>
+    <t>Asset02</t>
+  </si>
+  <si>
+    <t>Model-15</t>
+  </si>
+  <si>
+    <t>Asset03</t>
+  </si>
+  <si>
+    <t>Model-16</t>
+  </si>
+  <si>
+    <t>2-Manufacturer</t>
+  </si>
+  <si>
+    <t>ASST011-Test</t>
+  </si>
+  <si>
+    <t>Model-12</t>
+  </si>
+  <si>
+    <t>Model-13</t>
+  </si>
+  <si>
+    <t>Sterilizer</t>
+  </si>
+  <si>
+    <t>3-Manufacturer</t>
+  </si>
+  <si>
+    <t>2-location</t>
+  </si>
+  <si>
+    <t>3-location</t>
+  </si>
+  <si>
+    <t>1-Man</t>
+  </si>
+  <si>
+    <t>1-Manuf</t>
+  </si>
+  <si>
+    <t>1-locate</t>
+  </si>
+  <si>
+    <t>1-locatio</t>
   </si>
 </sst>
 </file>
@@ -5466,7 +5499,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5555,10 +5588,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0EC7E7-0A30-41F4-9875-DC335ECFE7AE}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5576,7 +5609,7 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -5606,22 +5639,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>152</v>
@@ -5636,7 +5669,77 @@
         <v>149</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>179</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5647,10 +5750,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36C667C-6956-48CC-B8BF-D3D1D233432F}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,7 +5774,7 @@
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -5698,22 +5801,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>152</v>
@@ -5728,7 +5831,77 @@
         <v>149</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F3E85F-002A-44AA-82F9-DC2FDBBDC686}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065ABF8D-78C1-47CB-943A-43BAEDE2DC67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="19" activeTab="26" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="19" activeTab="27" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -40,12 +40,13 @@
     <sheet name="ASST41" sheetId="34" r:id="rId25"/>
     <sheet name="ASST42" sheetId="36" r:id="rId26"/>
     <sheet name="AssetAllData" sheetId="19" r:id="rId27"/>
-    <sheet name="tcasst011" sheetId="22" r:id="rId28"/>
-    <sheet name="tc147" sheetId="8" r:id="rId29"/>
-    <sheet name="tc149" sheetId="21" r:id="rId30"/>
-    <sheet name="tcasst014" sheetId="23" r:id="rId31"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId32"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId33"/>
+    <sheet name="ASST49" sheetId="37" r:id="rId28"/>
+    <sheet name="tcasst011" sheetId="22" r:id="rId29"/>
+    <sheet name="tc147" sheetId="8" r:id="rId30"/>
+    <sheet name="tc149" sheetId="21" r:id="rId31"/>
+    <sheet name="tcasst014" sheetId="23" r:id="rId32"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId33"/>
+    <sheet name="Sheet3" sheetId="35" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -374,7 +375,7 @@
     <author>Ghadei, Manoj (Amphenol-AS)</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4CF7F98A-9EDA-400C-AF1A-312A4DD9E354}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4AED6921-04CB-439E-B61F-45D21FECB987}">
       <text>
         <r>
           <rPr>
@@ -398,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D8EA7BD9-0F3F-44D6-9A56-B87CB1CE311D}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9108BBC9-51AC-411B-9B3E-6623C8E3D918}">
       <text>
         <r>
           <rPr>
@@ -418,11 +419,12 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Default Size Units Like cu ft/m/in</t>
+- Enter todays date
+-Insert Date in mm-dd-YYYY format</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9886B2F3-C1AD-40A7-A0D3-EAF19B360FFC}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4852396F-8461-4CDE-BA96-0FF3DA5E2F35}">
       <text>
         <r>
           <rPr>
@@ -476,7 +478,7 @@
     <author>Ghadei, Manoj (Amphenol-AS)</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4C2154AD-42EF-4B40-B614-C0E650AE12A9}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4CF7F98A-9EDA-400C-AF1A-312A4DD9E354}">
       <text>
         <r>
           <rPr>
@@ -500,7 +502,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A1D49A09-E5F3-41F2-8E60-B0135B0BA616}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D8EA7BD9-0F3F-44D6-9A56-B87CB1CE311D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Default Size Units Like cu ft/m/in</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9886B2F3-C1AD-40A7-A0D3-EAF19B360FFC}">
       <text>
         <r>
           <rPr>
@@ -554,7 +580,7 @@
     <author>Ghadei, Manoj (Amphenol-AS)</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EC7488E6-A897-4FD3-BAB5-85E9EF760D77}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4C2154AD-42EF-4B40-B614-C0E650AE12A9}">
       <text>
         <r>
           <rPr>
@@ -578,31 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{48F36AC3-FA47-41A9-AC2F-ADF178E66A37}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Default Size Units Like cu ft/m/in</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0F9BD116-B952-4ACD-A2CD-8F199466C54E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A1D49A09-E5F3-41F2-8E60-B0135B0BA616}">
       <text>
         <r>
           <rPr>
@@ -651,6 +653,108 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EC7488E6-A897-4FD3-BAB5-85E9EF760D77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{48F36AC3-FA47-41A9-AC2F-ADF178E66A37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Default Size Units Like cu ft/m/in</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0F9BD116-B952-4ACD-A2CD-8F199466C54E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -1665,7 +1769,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="241">
   <si>
     <t>Name</t>
   </si>
@@ -2376,6 +2480,18 @@
   </si>
   <si>
     <t>ASSTNew</t>
+  </si>
+  <si>
+    <t>ASST49</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Test Description for ASST49</t>
+  </si>
+  <si>
+    <t>11-13-2019</t>
   </si>
 </sst>
 </file>
@@ -8176,7 +8292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6BA4E0-0C67-45A7-85A8-9BF5353A1E8A}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8272,6 +8388,105 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E963294-A9BA-4C6F-8828-8A0493CE8586}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0EC7E7-0A30-41F4-9875-DC335ECFE7AE}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -8425,98 +8640,6 @@
       </c>
       <c r="K4" s="12" t="s">
         <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -8748,6 +8871,98 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2977AC3-E2DD-4754-BCA4-066831CE45B8}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -8839,7 +9054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36C667C-6956-48CC-B8BF-D3D1D233432F}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -9001,7 +9216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86BD1EC-71B3-42BE-BB2A-D697838FB4B1}">
   <dimension ref="K1"/>
   <sheetViews>
@@ -9014,7 +9229,7 @@
     <row r="1" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K1" s="4" t="str">
         <f ca="1">TEXT(TODAY(),"mm-dd-YYYY")</f>
-        <v>11-12-2019</v>
+        <v>11-14-2019</v>
       </c>
     </row>
   </sheetData>
@@ -9022,7 +9237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D3E2A5-C485-4106-9941-FABDA2FA890E}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065ABF8D-78C1-47CB-943A-43BAEDE2DC67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9B923-BC4E-40C7-A89E-84E3554808FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="19" activeTab="27" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -41,12 +41,6 @@
     <sheet name="ASST42" sheetId="36" r:id="rId26"/>
     <sheet name="AssetAllData" sheetId="19" r:id="rId27"/>
     <sheet name="ASST49" sheetId="37" r:id="rId28"/>
-    <sheet name="tcasst011" sheetId="22" r:id="rId29"/>
-    <sheet name="tc147" sheetId="8" r:id="rId30"/>
-    <sheet name="tc149" sheetId="21" r:id="rId31"/>
-    <sheet name="tcasst014" sheetId="23" r:id="rId32"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId33"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -425,486 +419,6 @@
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4852396F-8461-4CDE-BA96-0FF3DA5E2F35}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data between 1-24
-- And </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DO NOT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> enter same value as entered in Size field</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ghadei, Manoj (Amphenol-AS)</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4CF7F98A-9EDA-400C-AF1A-312A4DD9E354}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{D8EA7BD9-0F3F-44D6-9A56-B87CB1CE311D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Default Size Units Like cu ft/m/in</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9886B2F3-C1AD-40A7-A0D3-EAF19B360FFC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data between 1-24
-- And </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DO NOT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> enter same value as entered in Size field</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ghadei, Manoj (Amphenol-AS)</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4C2154AD-42EF-4B40-B614-C0E650AE12A9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{A1D49A09-E5F3-41F2-8E60-B0135B0BA616}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data between 1-24
-- And </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DO NOT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> enter same value as entered in Size field</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ghadei, Manoj (Amphenol-AS)</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EC7488E6-A897-4FD3-BAB5-85E9EF760D77}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{48F36AC3-FA47-41A9-AC2F-ADF178E66A37}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Default Size Units Like cu ft/m/in</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{0F9BD116-B952-4ACD-A2CD-8F199466C54E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data between 1-24
-- And </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DO NOT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> enter same value as entered in Size field</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ghadei, Manoj (Amphenol-AS)</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{637C303C-5010-42AF-A522-AC76EAC6092D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Unique data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F4CCC0A0-87E6-4986-8182-0D45D7E57D71}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Unique data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C26356A2-85F8-49E1-BF71-D3E706EF10C8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert data with the 1st letter as Unique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C15F0743-5C8F-4C39-906F-078889D33126}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert data with the 1st letter as Unique</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0DEADBE6-39AD-40FD-9319-9F5DF77521A0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4394BABF-E99F-4DC2-B801-4E4B33AFBF14}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Default Size Units Like cu ft/m/in</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9F7EDF02-5713-4215-9C51-10A935007AC2}">
       <text>
         <r>
           <rPr>
@@ -1769,7 +1283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -2203,9 +1717,6 @@
     <t>FrequencyInterval</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Asset name accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
   </si>
   <si>
@@ -2215,9 +1726,6 @@
     <t>Asset ID accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
   </si>
   <si>
-    <t>Model147</t>
-  </si>
-  <si>
     <t>Type accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
   </si>
   <si>
@@ -2237,111 +1745,6 @@
   </si>
   <si>
     <t>testAsset</t>
-  </si>
-  <si>
-    <t>testManufacturer147</t>
-  </si>
-  <si>
-    <t>testLocation147</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>Asset149</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>149-Manufacturer</t>
-  </si>
-  <si>
-    <t>149location</t>
-  </si>
-  <si>
-    <t>Model149</t>
-  </si>
-  <si>
-    <t>cu ft</t>
-  </si>
-  <si>
-    <t>Model-11</t>
-  </si>
-  <si>
-    <t>Model-14</t>
-  </si>
-  <si>
-    <t>1-Manufacturer</t>
-  </si>
-  <si>
-    <t>1-location</t>
-  </si>
-  <si>
-    <t>Asset01</t>
-  </si>
-  <si>
-    <t>ASST014- Test</t>
-  </si>
-  <si>
-    <t>Asset02</t>
-  </si>
-  <si>
-    <t>Model-15</t>
-  </si>
-  <si>
-    <t>Asset03</t>
-  </si>
-  <si>
-    <t>Model-16</t>
-  </si>
-  <si>
-    <t>2-Manufacturer</t>
-  </si>
-  <si>
-    <t>ASST011-Test</t>
-  </si>
-  <si>
-    <t>Model-12</t>
-  </si>
-  <si>
-    <t>Model-13</t>
-  </si>
-  <si>
-    <t>Sterilizer</t>
-  </si>
-  <si>
-    <t>3-Manufacturer</t>
-  </si>
-  <si>
-    <t>2-location</t>
-  </si>
-  <si>
-    <t>3-location</t>
-  </si>
-  <si>
-    <t>1-Man</t>
-  </si>
-  <si>
-    <t>1-Manuf</t>
-  </si>
-  <si>
-    <t>1-locate</t>
-  </si>
-  <si>
-    <t>1-locatio</t>
-  </si>
-  <si>
-    <t>Asset147</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Test for  with correct details reflecting in the corresponding Asset tile of Asset Hub page</t>
-  </si>
-  <si>
-    <t>ASST149_ASST003-Verify if the Asset count info is equal  to the assets created in the Asset Hub page</t>
   </si>
   <si>
     <t>Model accepts alpha numeric and special characters like space, -,_ ,slash (forward and backward)</t>
@@ -2541,7 +1944,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2557,12 +1960,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2600,7 +1997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2615,9 +2012,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2940,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF0D48-3FFE-4E63-90D8-6D4600BE85B6}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2974,7 +2369,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2989,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3012,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,7 +2415,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3035,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3043,7 +2438,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3058,7 +2453,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,7 +2461,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3081,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3089,7 +2484,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3104,7 +2499,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3112,7 +2507,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3127,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3150,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +2598,7 @@
         <v>132</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3215,7 +2610,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,7 +2618,7 @@
         <v>132</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3235,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3243,7 +2638,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3255,7 +2650,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3263,7 +2658,7 @@
         <v>132</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3275,7 +2670,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3283,7 +2678,7 @@
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3295,7 +2690,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3303,7 +2698,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3315,7 +2710,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,7 +2718,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3335,7 +2730,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3343,7 +2738,7 @@
         <v>132</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3355,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3363,7 +2758,7 @@
         <v>132</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3375,7 +2770,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,7 +2778,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3395,7 +2790,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,7 +2798,7 @@
         <v>132</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3415,7 +2810,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3423,7 +2818,7 @@
         <v>132</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3435,7 +2830,7 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3443,7 +2838,7 @@
         <v>132</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3455,7 +2850,7 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,7 +2858,7 @@
         <v>132</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3475,7 +2870,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3483,7 +2878,7 @@
         <v>132</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3495,7 +2890,7 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3503,7 +2898,7 @@
         <v>132</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3515,7 +2910,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3523,7 +2918,7 @@
         <v>132</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3535,7 +2930,7 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3543,7 +2938,7 @@
         <v>132</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3555,7 +2950,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,7 +2958,7 @@
         <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3575,7 +2970,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3583,7 +2978,7 @@
         <v>132</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3595,7 +2990,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3603,7 +2998,7 @@
         <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3615,7 +3010,7 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,7 +3018,7 @@
         <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3635,7 +3030,7 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3643,7 +3038,7 @@
         <v>132</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3655,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3663,7 +3058,7 @@
         <v>132</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3675,7 +3070,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3078,7 @@
         <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -3703,7 +3098,7 @@
         <v>132</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -3759,10 +3154,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>57</v>
@@ -3779,10 +3174,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>57</v>
@@ -3799,10 +3194,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>57</v>
@@ -3819,10 +3214,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>57</v>
@@ -3839,10 +3234,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>57</v>
@@ -3859,10 +3254,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>57</v>
@@ -3879,10 +3274,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>57</v>
@@ -3899,10 +3294,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>57</v>
@@ -3967,10 +3362,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3985,15 +3380,15 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4008,15 +3403,15 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -4031,15 +3426,15 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -4054,15 +3449,15 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4077,15 +3472,15 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4100,15 +3495,15 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4123,15 +3518,15 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4146,15 +3541,15 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4169,15 +3564,15 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4192,15 +3587,15 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4215,15 +3610,15 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -4238,15 +3633,15 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -4261,15 +3656,15 @@
         <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -4284,15 +3679,15 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -4307,15 +3702,15 @@
         <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -4330,15 +3725,15 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -4353,15 +3748,15 @@
         <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -4376,15 +3771,15 @@
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -4399,15 +3794,15 @@
         <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -4422,15 +3817,15 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -4445,15 +3840,15 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -4468,15 +3863,15 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -4491,15 +3886,15 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -4514,7 +3909,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4568,10 +3963,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -4591,10 +3986,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4614,10 +4009,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -4637,10 +4032,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -4660,10 +4055,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4683,10 +4078,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -4706,10 +4101,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4729,10 +4124,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -5299,10 +4694,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -5325,10 +4720,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -5351,10 +4746,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -5377,10 +4772,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -5403,10 +4798,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -5429,10 +4824,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -5455,10 +4850,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -5481,10 +4876,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -5507,10 +4902,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -5533,10 +4928,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -5559,10 +4954,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -5634,10 +5029,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -5657,10 +5052,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -5680,10 +5075,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -5703,10 +5098,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -5726,10 +5121,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -5749,10 +5144,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -5772,10 +5167,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -5795,10 +5190,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -5818,10 +5213,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -5841,10 +5236,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -5917,10 +5312,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -5943,10 +5338,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -5969,10 +5364,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -5995,10 +5390,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -6021,10 +5416,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -6047,10 +5442,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -6073,10 +5468,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -6099,10 +5494,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -6125,10 +5520,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -6151,10 +5546,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -6177,10 +5572,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -6203,10 +5598,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -6229,10 +5624,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -6255,10 +5650,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -6281,10 +5676,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -6307,10 +5702,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -6333,10 +5728,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -6359,10 +5754,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -6385,10 +5780,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -6411,10 +5806,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -6437,10 +5832,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -6463,10 +5858,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -6489,10 +5884,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -6515,10 +5910,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -6541,10 +5936,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -6612,8 +6007,8 @@
       <c r="H1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>196</v>
+      <c r="I1" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -6627,40 +6022,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6711,8 +6106,8 @@
       <c r="H1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>196</v>
+      <c r="I1" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -6726,40 +6121,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6810,8 +6205,8 @@
       <c r="H1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>196</v>
+      <c r="I1" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -6825,31 +6220,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -6858,7 +6253,7 @@
         <v>142</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +6313,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -6936,7 +6331,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6944,7 +6339,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -6962,7 +6357,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6970,7 +6365,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -6982,13 +6377,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6996,7 +6391,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -7008,13 +6403,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,7 +6417,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -7034,13 +6429,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7048,7 +6443,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -7060,13 +6455,13 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7074,7 +6469,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -7086,13 +6481,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7100,7 +6495,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -7112,13 +6507,13 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7126,7 +6521,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -7138,13 +6533,13 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7152,7 +6547,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -7164,13 +6559,13 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7178,7 +6573,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -7190,13 +6585,13 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7204,7 +6599,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -7216,13 +6611,13 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7230,7 +6625,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -7242,13 +6637,13 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7256,7 +6651,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -7268,13 +6663,13 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7282,7 +6677,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -7294,13 +6689,13 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7308,7 +6703,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -7320,13 +6715,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7334,7 +6729,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -7346,13 +6741,13 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7360,7 +6755,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -7372,13 +6767,13 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7386,7 +6781,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -7398,13 +6793,13 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7412,7 +6807,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -7424,13 +6819,13 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7438,7 +6833,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -7450,13 +6845,13 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -7464,7 +6859,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -7476,13 +6871,13 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G23" s="3">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -7490,7 +6885,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -7502,13 +6897,13 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -7516,7 +6911,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -7528,13 +6923,13 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G25" s="3">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -7542,7 +6937,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -7554,13 +6949,13 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -7568,7 +6963,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -7580,13 +6975,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7637,7 +7032,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -7651,10 +7046,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7663,28 +7058,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7736,7 +7131,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -7750,10 +7145,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7762,28 +7157,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7835,7 +7230,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -7849,10 +7244,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7861,28 +7256,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7934,7 +7329,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -7948,10 +7343,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7960,28 +7355,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8033,7 +7428,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -8047,10 +7442,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8059,28 +7454,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -8132,7 +7527,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -8146,10 +7541,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8158,28 +7553,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8231,7 +7626,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -8245,10 +7640,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8257,28 +7652,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8330,7 +7725,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -8344,10 +7739,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8356,28 +7751,28 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8391,7 +7786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E963294-A9BA-4C6F-8828-8A0493CE8586}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -8429,7 +7824,7 @@
         <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>141</v>
@@ -8443,10 +7838,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8455,196 +7850,34 @@
         <v>6</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0EC7E7-0A30-41F4-9875-DC335ECFE7AE}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8683,7 +7916,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
@@ -8701,12 +7934,12 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>49</v>
@@ -8724,12 +7957,12 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -8747,12 +7980,12 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -8770,12 +8003,12 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -8793,12 +8026,12 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -8816,12 +8049,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -8839,12 +8072,12 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -8862,389 +8095,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3E587-13BF-4114-8BD8-3ABD0CCB2044}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2977AC3-E2DD-4754-BCA4-066831CE45B8}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36C667C-6956-48CC-B8BF-D3D1D233432F}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86BD1EC-71B3-42BE-BB2A-D697838FB4B1}">
-  <dimension ref="K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K1" s="4" t="str">
-        <f ca="1">TEXT(TODAY(),"mm-dd-YYYY")</f>
-        <v>11-14-2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D3E2A5-C485-4106-9941-FABDA2FA890E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9297,7 +8151,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -9318,12 +8172,12 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -9344,12 +8198,12 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -9364,18 +8218,18 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -9390,18 +8244,18 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -9416,18 +8270,18 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -9442,18 +8296,18 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -9468,18 +8322,18 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>19</v>
@@ -9494,18 +8348,18 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
@@ -9520,18 +8374,18 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -9546,18 +8400,18 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>21</v>
@@ -9572,18 +8426,18 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -9598,18 +8452,18 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>26</v>
@@ -9624,18 +8478,18 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -9650,18 +8504,18 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>23</v>
@@ -9676,18 +8530,18 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>24</v>
@@ -9702,18 +8556,18 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>27</v>
@@ -9728,18 +8582,18 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>29</v>
@@ -9754,18 +8608,18 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>25</v>
@@ -9780,18 +8634,18 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>30</v>
@@ -9806,18 +8660,18 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -9832,18 +8686,18 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>33</v>
@@ -9858,18 +8712,18 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>34</v>
@@ -9884,18 +8738,18 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -9910,18 +8764,18 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>36</v>
@@ -9936,18 +8790,18 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>35</v>
@@ -9962,13 +8816,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -10012,10 +8866,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>38</v>
@@ -10030,15 +8884,15 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -10053,15 +8907,15 @@
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>39</v>
@@ -10076,15 +8930,15 @@
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -10099,15 +8953,15 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -10122,15 +8976,15 @@
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -10145,15 +8999,15 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
@@ -10168,15 +9022,15 @@
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -10191,7 +9045,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -10268,7 +9122,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10294,7 +9148,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10314,13 +9168,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -10340,13 +9194,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10366,13 +9220,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -10392,21 +9246,21 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="3">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>18</v>
@@ -10418,21 +9272,21 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -10444,21 +9298,21 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
@@ -10470,21 +9324,21 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>20</v>
@@ -10496,21 +9350,21 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="3">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>21</v>
@@ -10522,21 +9376,21 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>22</v>
@@ -10548,21 +9402,21 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>26</v>
@@ -10574,21 +9428,21 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G14" s="3">
         <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>28</v>
@@ -10600,21 +9454,21 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>23</v>
@@ -10626,21 +9480,21 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>24</v>
@@ -10652,21 +9506,21 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G17" s="3">
         <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>27</v>
@@ -10678,21 +9532,21 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>29</v>
@@ -10704,21 +9558,21 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>25</v>
@@ -10730,21 +9584,21 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>30</v>
@@ -10756,21 +9610,21 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>31</v>
@@ -10782,21 +9636,21 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G22" s="3">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>33</v>
@@ -10808,21 +9662,21 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>34</v>
@@ -10834,21 +9688,21 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>37</v>
@@ -10860,21 +9714,21 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>36</v>
@@ -10886,21 +9740,21 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G26" s="3">
         <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -10912,13 +9766,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G27" s="3">
         <v>5</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -10967,10 +9821,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -10984,10 +9838,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -11001,10 +9855,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -11018,10 +9872,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -11035,10 +9889,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -11052,10 +9906,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -11069,10 +9923,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -11086,10 +9940,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -11151,7 +10005,7 @@
         <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -11163,7 +10017,7 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -11171,7 +10025,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -11183,7 +10037,7 @@
         <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -11191,7 +10045,7 @@
         <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -11203,7 +10057,7 @@
         <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -11211,7 +10065,7 @@
         <v>125</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -11223,7 +10077,7 @@
         <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -11231,7 +10085,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -11243,7 +10097,7 @@
         <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -11251,7 +10105,7 @@
         <v>125</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -11263,7 +10117,7 @@
         <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -11271,7 +10125,7 @@
         <v>125</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -11283,7 +10137,7 @@
         <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -11291,7 +10145,7 @@
         <v>125</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -11303,7 +10157,7 @@
         <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -11311,7 +10165,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -11323,7 +10177,7 @@
         <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -11331,7 +10185,7 @@
         <v>125</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -11343,7 +10197,7 @@
         <v>124</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -11351,7 +10205,7 @@
         <v>125</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -11363,7 +10217,7 @@
         <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -11371,7 +10225,7 @@
         <v>125</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -11383,7 +10237,7 @@
         <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11391,7 +10245,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -11403,7 +10257,7 @@
         <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11411,7 +10265,7 @@
         <v>125</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -11423,7 +10277,7 @@
         <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11431,7 +10285,7 @@
         <v>125</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -11443,7 +10297,7 @@
         <v>124</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11451,7 +10305,7 @@
         <v>125</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -11463,7 +10317,7 @@
         <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11471,7 +10325,7 @@
         <v>125</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -11483,7 +10337,7 @@
         <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -11491,7 +10345,7 @@
         <v>125</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -11503,7 +10357,7 @@
         <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11511,7 +10365,7 @@
         <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -11523,7 +10377,7 @@
         <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11531,7 +10385,7 @@
         <v>125</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -11543,7 +10397,7 @@
         <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11551,7 +10405,7 @@
         <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -11563,7 +10417,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -11571,7 +10425,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -11583,7 +10437,7 @@
         <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -11591,7 +10445,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -11603,7 +10457,7 @@
         <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11611,7 +10465,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -11623,7 +10477,7 @@
         <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -11631,7 +10485,7 @@
         <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
@@ -11651,7 +10505,7 @@
         <v>125</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -11712,10 +10566,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>5</v>
@@ -11729,10 +10583,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>5</v>
@@ -11746,10 +10600,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>5</v>
@@ -11763,10 +10617,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>5</v>
@@ -11780,10 +10634,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>5</v>
@@ -11797,10 +10651,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>5</v>
@@ -11814,10 +10668,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>5</v>
@@ -11831,10 +10685,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>5</v>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA9B923-BC4E-40C7-A89E-84E3554808FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525988D6-27ED-4905-8400-909B0B63C53A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="15" activeTab="15" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -107,7 +107,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -209,7 +209,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -311,7 +311,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY</t>
         </r>
       </text>
     </comment>
@@ -414,7 +414,7 @@
           </rPr>
           <t xml:space="preserve">
 - Enter todays date
--Insert Date in mm-dd-YYYY format</t>
+-Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -516,7 +516,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -618,7 +618,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -720,7 +720,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -822,7 +822,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -924,7 +924,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -1026,7 +1026,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -1128,7 +1128,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYYy format</t>
         </r>
       </text>
     </comment>
@@ -1230,7 +1230,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm-dd-yyyy format</t>
+Insert Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -1283,7 +1283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="202">
   <si>
     <t>Name</t>
   </si>
@@ -1765,9 +1765,6 @@
     <t>Validation Date</t>
   </si>
   <si>
-    <t>11-08-2019</t>
-  </si>
-  <si>
     <t>Bath</t>
   </si>
   <si>
@@ -1798,15 +1795,9 @@
     <t>Test Description for ASST32c</t>
   </si>
   <si>
-    <t>10-09-2019</t>
-  </si>
-  <si>
     <t>Test Description for ASST32b</t>
   </si>
   <si>
-    <t>11-09-2019</t>
-  </si>
-  <si>
     <t>ASST35</t>
   </si>
   <si>
@@ -1849,9 +1840,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>11-11-2019</t>
-  </si>
-  <si>
     <t>Test Description for ASST39</t>
   </si>
   <si>
@@ -1861,9 +1849,6 @@
     <t>41</t>
   </si>
   <si>
-    <t>11-12-2019</t>
-  </si>
-  <si>
     <t>Test Description for ASST41</t>
   </si>
   <si>
@@ -1894,7 +1879,16 @@
     <t>Test Description for ASST49</t>
   </si>
   <si>
-    <t>11-13-2019</t>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>11/09/2019</t>
+  </si>
+  <si>
+    <t>11/08/2019</t>
+  </si>
+  <si>
+    <t>10/09/2019</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAF0D48-3FFE-4E63-90D8-6D4600BE85B6}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5267,7 +5261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89930B9C-F1A9-4890-AFB9-2EA6D8CB06AA}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
@@ -5971,7 +5965,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6022,13 +6016,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -6046,7 +6040,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -6055,7 +6049,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6064,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6121,13 +6115,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -6145,16 +6139,16 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6169,7 +6163,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6220,13 +6214,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>169</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -6244,7 +6238,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -6253,7 +6247,7 @@
         <v>142</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6995,7 +6989,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7046,10 +7040,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7070,7 +7064,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7079,7 +7073,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7094,7 +7088,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7145,10 +7139,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7169,7 +7163,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7178,7 +7172,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7193,7 +7187,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7244,10 +7238,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7268,7 +7262,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7277,7 +7271,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -7292,7 +7286,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7343,10 +7337,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7367,7 +7361,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7376,7 +7370,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7391,7 +7385,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7442,10 +7436,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7466,7 +7460,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7475,7 +7469,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7490,7 +7484,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7541,10 +7535,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7565,7 +7559,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7574,7 +7568,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7589,7 +7583,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7640,10 +7634,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7664,7 +7658,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7673,7 +7667,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -7688,7 +7682,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7739,10 +7733,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7763,7 +7757,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7772,7 +7766,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7787,7 +7781,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7838,10 +7832,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7862,7 +7856,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7871,7 +7865,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525988D6-27ED-4905-8400-909B0B63C53A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430FD40B-C60A-4A1F-8F45-8AE8C8FDF833}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="15" activeTab="15" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="0" yWindow="510" windowWidth="20490" windowHeight="10560" tabRatio="847" firstSheet="15" activeTab="17" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -29,18 +29,19 @@
     <sheet name="ASST25" sheetId="10" r:id="rId14"/>
     <sheet name="ASST28" sheetId="13" r:id="rId15"/>
     <sheet name="ASST29" sheetId="12" r:id="rId16"/>
-    <sheet name="ASST32a" sheetId="25" r:id="rId17"/>
-    <sheet name="ASST32b" sheetId="27" r:id="rId18"/>
-    <sheet name="ASST32c" sheetId="28" r:id="rId19"/>
-    <sheet name="ASST35" sheetId="29" r:id="rId20"/>
-    <sheet name="ASST36" sheetId="30" r:id="rId21"/>
-    <sheet name="ASST37" sheetId="31" r:id="rId22"/>
-    <sheet name="ASST38" sheetId="32" r:id="rId23"/>
-    <sheet name="ASST39" sheetId="33" r:id="rId24"/>
-    <sheet name="ASST41" sheetId="34" r:id="rId25"/>
-    <sheet name="ASST42" sheetId="36" r:id="rId26"/>
-    <sheet name="AssetAllData" sheetId="19" r:id="rId27"/>
-    <sheet name="ASST49" sheetId="37" r:id="rId28"/>
+    <sheet name="ASST30b" sheetId="38" r:id="rId17"/>
+    <sheet name="ASST32a" sheetId="25" r:id="rId18"/>
+    <sheet name="ASST32b" sheetId="27" r:id="rId19"/>
+    <sheet name="ASST32c" sheetId="28" r:id="rId20"/>
+    <sheet name="ASST35" sheetId="29" r:id="rId21"/>
+    <sheet name="ASST36" sheetId="30" r:id="rId22"/>
+    <sheet name="ASST37" sheetId="31" r:id="rId23"/>
+    <sheet name="ASST38" sheetId="32" r:id="rId24"/>
+    <sheet name="ASST39" sheetId="33" r:id="rId25"/>
+    <sheet name="ASST41" sheetId="34" r:id="rId26"/>
+    <sheet name="ASST42" sheetId="36" r:id="rId27"/>
+    <sheet name="AssetAllData" sheetId="19" r:id="rId28"/>
+    <sheet name="ASST49" sheetId="37" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,41 @@
     <author>Ghadei, Manoj (Amphenol-AS)</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{84346A25-2952-4B5F-9579-5E730E106FC8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C650163B-C4A9-4AAC-83BD-CE5E28C8E449}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter the expected Last Validated Date to be set for a new Asset in mm/dd/yyyy format</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B9C7326C-C882-4F9F-B294-800778C100BD}">
       <text>
         <r>
           <rPr>
@@ -87,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{449D7C87-121A-4A11-8277-E2F0545BDC34}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{6500FF9D-5C4E-4EC5-A4F8-D633C1F80FD2}">
       <text>
         <r>
           <rPr>
@@ -111,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C53B6AAB-3A36-42F2-9EF2-BCDF8321365F}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E9455E97-BB05-4C05-A7FE-74EB4C5EB3B0}">
       <text>
         <r>
           <rPr>
@@ -159,7 +194,7 @@
 </comments>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -261,7 +296,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -363,7 +398,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -472,6 +507,108 @@
     <author>Ghadei, Manoj (Amphenol-AS)</author>
   </authors>
   <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{84346A25-2952-4B5F-9579-5E730E106FC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{449D7C87-121A-4A11-8277-E2F0545BDC34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Todays Date in mm/dd/YYYY format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C53B6AAB-3A36-42F2-9EF2-BCDF8321365F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{DD8C3CF4-F1D4-450E-B15A-C0B631B69535}">
       <text>
         <r>
@@ -516,7 +653,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Insert Date in mm/dd/YYYY format</t>
+Insert Todays Date in mm/dd/YYYY format</t>
         </r>
       </text>
     </comment>
@@ -568,7 +705,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -670,7 +807,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -772,7 +909,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -874,7 +1011,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -976,7 +1113,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -1078,7 +1215,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ghadei, Manoj (Amphenol-AS)</author>
@@ -1180,110 +1317,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ghadei, Manoj (Amphenol-AS)</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B9C7326C-C882-4F9F-B294-800778C100BD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{6500FF9D-5C4E-4EC5-A4F8-D633C1F80FD2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Date in mm/dd/YYYY format</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E9455E97-BB05-4C05-A7FE-74EB4C5EB3B0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ghadei, Manoj (Amphenol-AS):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Insert Only +ve Integer Data between 1-24
-- And </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DO NOT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> enter same value as entered in Size field</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="203">
   <si>
     <t>Name</t>
   </si>
@@ -1885,10 +1920,13 @@
     <t>11/09/2019</t>
   </si>
   <si>
-    <t>11/08/2019</t>
-  </si>
-  <si>
-    <t>10/09/2019</t>
+    <t>Expected Date</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>11/20/2019</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2007,6 +2045,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5261,9 +5300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89930B9C-F1A9-4890-AFB9-2EA6D8CB06AA}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5961,11 +6000,41 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BD2CEA-92A8-4DC8-8162-977D72C7275D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7B18D-2C9B-4C98-940D-CBDC967F6157}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,7 +6109,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -6059,12 +6128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4140351F-02D4-4EFD-B194-3C3971A667AB}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6139,7 +6208,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -6149,105 +6218,6 @@
       </c>
       <c r="L2" s="12" t="s">
         <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8CD77E-E157-4335-960B-CEA1BA4E3EEB}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6985,6 +6955,105 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8CD77E-E157-4335-960B-CEA1BA4E3EEB}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045CEC76-92E4-440E-8FB5-B2D86440415F}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7083,7 +7152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EFE6F1-BD29-46DE-95C0-F9F7B6E4E4B2}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7182,7 +7251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AD8486-09F3-465F-8EC4-93F28EDF9B13}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7281,7 +7350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086590AF-81EF-4C82-958E-57A546B327AF}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7380,7 +7449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B477CC7-FF3A-45A8-A37A-5798C34CD4E9}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7479,7 +7548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECCA7D5-0CE1-41A3-89D6-22D2CB3DBC2D}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7578,7 +7647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0B1588-7998-47BE-8594-1C19F016135F}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7677,7 +7746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6BA4E0-0C67-45A7-85A8-9BF5353A1E8A}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7776,7 +7845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E963294-A9BA-4C6F-8828-8A0493CE8586}">
   <dimension ref="A1:L2"/>
   <sheetViews>

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430FD40B-C60A-4A1F-8F45-8AE8C8FDF833}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BDFA63-0D86-476C-B0C0-74606B7BB7A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="510" windowWidth="20490" windowHeight="10560" tabRatio="847" firstSheet="15" activeTab="17" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="0" yWindow="960" windowWidth="20490" windowHeight="10560" tabRatio="847" firstSheet="21" activeTab="32" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,10 @@
     <sheet name="ASST42" sheetId="36" r:id="rId27"/>
     <sheet name="AssetAllData" sheetId="19" r:id="rId28"/>
     <sheet name="ASST49" sheetId="37" r:id="rId29"/>
+    <sheet name="ASSTHB006a" sheetId="40" r:id="rId30"/>
+    <sheet name="ASSTHB006b" sheetId="39" r:id="rId31"/>
+    <sheet name="ASSTHB008" sheetId="42" r:id="rId32"/>
+    <sheet name="ASSTHB012" sheetId="41" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -454,6 +458,418 @@
       </text>
     </comment>
     <comment ref="J1" authorId="0" shapeId="0" xr:uid="{4852396F-8461-4CDE-BA96-0FF3DA5E2F35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{05EE7E6F-10FD-4CC3-B5DC-C6C2A492C617}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4693F046-FAAC-411C-946D-208884661910}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Enter todays date
+-Insert Date in mm/dd/YYYY format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{B039A7B6-59BB-49EB-AF54-1C85AC73116E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{B3B2420A-A1BC-4424-A850-8D024CF05E75}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{256E9FC6-A352-43D1-8789-BC883C5CEE46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Enter todays date
+-Insert Date in mm/dd/YYYY format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2E962F8C-8E53-4E4C-94D2-2D7A19FE7649}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{09390E84-4579-4993-9227-C2C3721C8983}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{7898905F-AB63-4D45-982B-22B75F20436B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Enter todays date
+-Insert Date in mm/dd/YYYY format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{C05EB6D9-270E-4533-8ACB-D4F749AB1170}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E11C4FC8-6618-4563-9605-E1452A43CBC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{EEB50F09-24F0-41D2-A91F-486D57AABEF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+- Enter todays date
+-Insert Date in mm/dd/YYYY format</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3536843F-1602-4869-97CA-DFE3F66EAE5E}">
       <text>
         <r>
           <rPr>
@@ -1318,7 +1734,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="343">
   <si>
     <t>Name</t>
   </si>
@@ -1927,6 +2343,426 @@
   </si>
   <si>
     <t>11/20/2019</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB006b</t>
+  </si>
+  <si>
+    <t>ASSTHB006b</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>11/25/2019</t>
+  </si>
+  <si>
+    <t>ASSTHB006a</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB006a</t>
+  </si>
+  <si>
+    <t>ASSTHB001</t>
+  </si>
+  <si>
+    <t>ASSTHB002</t>
+  </si>
+  <si>
+    <t>ASSTHB003</t>
+  </si>
+  <si>
+    <t>ASSTHB004</t>
+  </si>
+  <si>
+    <t>ASSTHB005</t>
+  </si>
+  <si>
+    <t>ASSTHB006</t>
+  </si>
+  <si>
+    <t>ASSTHB007</t>
+  </si>
+  <si>
+    <t>ASSTHB008</t>
+  </si>
+  <si>
+    <t>ASSTHB009</t>
+  </si>
+  <si>
+    <t>ASSTHB010</t>
+  </si>
+  <si>
+    <t>ASSTHB011</t>
+  </si>
+  <si>
+    <t>ASSTHB012</t>
+  </si>
+  <si>
+    <t>ASSTHB013</t>
+  </si>
+  <si>
+    <t>ASSTHB014</t>
+  </si>
+  <si>
+    <t>ASSTHB015</t>
+  </si>
+  <si>
+    <t>ASSTHB016</t>
+  </si>
+  <si>
+    <t>ASSTHB017</t>
+  </si>
+  <si>
+    <t>ASSTHB018</t>
+  </si>
+  <si>
+    <t>ASSTHB019</t>
+  </si>
+  <si>
+    <t>ASSTHB020</t>
+  </si>
+  <si>
+    <t>ASSTHB021</t>
+  </si>
+  <si>
+    <t>ASSTHB022</t>
+  </si>
+  <si>
+    <t>ASSTHB023</t>
+  </si>
+  <si>
+    <t>ASSTHB024</t>
+  </si>
+  <si>
+    <t>ASSTHB025</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Sterilizer</t>
+  </si>
+  <si>
+    <t>HTC10</t>
+  </si>
+  <si>
+    <t>HTC11</t>
+  </si>
+  <si>
+    <t>HTC12</t>
+  </si>
+  <si>
+    <t>HTC13</t>
+  </si>
+  <si>
+    <t>HTC14</t>
+  </si>
+  <si>
+    <t>HTC15</t>
+  </si>
+  <si>
+    <t>HTC16</t>
+  </si>
+  <si>
+    <t>HTC17</t>
+  </si>
+  <si>
+    <t>HTC18</t>
+  </si>
+  <si>
+    <t>HTC19</t>
+  </si>
+  <si>
+    <t>HTC20</t>
+  </si>
+  <si>
+    <t>HTC21</t>
+  </si>
+  <si>
+    <t>HTC22</t>
+  </si>
+  <si>
+    <t>HTC23</t>
+  </si>
+  <si>
+    <t>HTC24</t>
+  </si>
+  <si>
+    <t>HTC25</t>
+  </si>
+  <si>
+    <t>HTC01</t>
+  </si>
+  <si>
+    <t>HTC02</t>
+  </si>
+  <si>
+    <t>HTC03</t>
+  </si>
+  <si>
+    <t>HTC04</t>
+  </si>
+  <si>
+    <t>HTC05</t>
+  </si>
+  <si>
+    <t>HTC06</t>
+  </si>
+  <si>
+    <t>HTC07</t>
+  </si>
+  <si>
+    <t>HTC08</t>
+  </si>
+  <si>
+    <t>HTC09</t>
+  </si>
+  <si>
+    <t>AAS01</t>
+  </si>
+  <si>
+    <t>AAS02</t>
+  </si>
+  <si>
+    <t>AAS03</t>
+  </si>
+  <si>
+    <t>AAS04</t>
+  </si>
+  <si>
+    <t>AAS05</t>
+  </si>
+  <si>
+    <t>AAS06</t>
+  </si>
+  <si>
+    <t>AAS07</t>
+  </si>
+  <si>
+    <t>AAS08</t>
+  </si>
+  <si>
+    <t>AAS09</t>
+  </si>
+  <si>
+    <t>AAS10</t>
+  </si>
+  <si>
+    <t>AAS11</t>
+  </si>
+  <si>
+    <t>AAS12</t>
+  </si>
+  <si>
+    <t>AAS13</t>
+  </si>
+  <si>
+    <t>AAS14</t>
+  </si>
+  <si>
+    <t>AAS15</t>
+  </si>
+  <si>
+    <t>AAS16</t>
+  </si>
+  <si>
+    <t>AAS17</t>
+  </si>
+  <si>
+    <t>AAS18</t>
+  </si>
+  <si>
+    <t>AAS19</t>
+  </si>
+  <si>
+    <t>AAS20</t>
+  </si>
+  <si>
+    <t>AAS21</t>
+  </si>
+  <si>
+    <t>AAS22</t>
+  </si>
+  <si>
+    <t>AAS23</t>
+  </si>
+  <si>
+    <t>AAS24</t>
+  </si>
+  <si>
+    <t>AAS25</t>
+  </si>
+  <si>
+    <t>cu ft</t>
+  </si>
+  <si>
+    <t>cu in</t>
+  </si>
+  <si>
+    <t>11/30/2019</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0001</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0002</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0003</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0004</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0005</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0006</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0007</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0008</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0009</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0010</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0011</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0012</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0013</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0014</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0015</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0016</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0017</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0018</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0019</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0020</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0021</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0022</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0023</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0024</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0025</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2025,11 +2861,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2046,6 +2893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6033,7 +6881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7B18D-2C9B-4C98-940D-CBDC967F6157}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -7850,7 +8698,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L2" sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8163,6 +9011,1303 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1273BFC5-F09E-463C-811C-C15B1A144BE4}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4CDED8-2D98-46A0-A20D-89B80DCCCBEB}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92F6D75-CB41-4D5A-A3BD-D8FF5A204F10}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F849282-884D-43B5-AC4C-35EA751A7EE8}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VRT/TestData/AssetNameTestData.xlsx
+++ b/VRT/TestData/AssetNameTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.ghadei\git\VRT\VRT\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BDFA63-0D86-476C-B0C0-74606B7BB7A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1084D-DF84-4236-A673-1E08AAC2A669}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="20490" windowHeight="10560" tabRatio="847" firstSheet="21" activeTab="32" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="847" firstSheet="23" activeTab="32" xr2:uid="{88CC17F3-0530-4FB5-9C07-02E67965A03F}"/>
   </bookViews>
   <sheets>
     <sheet name="ASST02" sheetId="2" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="ASSTHB006b" sheetId="39" r:id="rId31"/>
     <sheet name="ASSTHB008" sheetId="42" r:id="rId32"/>
     <sheet name="ASSTHB012" sheetId="41" r:id="rId33"/>
+    <sheet name="testAsset" sheetId="43" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -85,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Enter the expected Last Validated Date to be set for a new Asset in mm/dd/yyyy format</t>
@@ -134,7 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -143,7 +144,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY format</t>
@@ -236,7 +237,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -245,7 +246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY format</t>
@@ -338,7 +339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -347,7 +348,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY</t>
@@ -440,7 +441,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -449,7 +450,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Enter todays date
@@ -543,7 +544,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -552,7 +553,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Enter todays date
@@ -646,7 +647,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -655,7 +656,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Enter todays date
@@ -749,7 +750,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -758,7 +759,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Enter todays date
@@ -852,7 +853,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -861,7 +862,113 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Enter todays date
+-Insert Date in mm/dd/YYYY format
+- Ex: 01/07/2020, where 01=Jan, 07= Day, 2020= Year.
+- Insert single digit day/Month data in 01-09 format instead of 
+1/7/2020 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3536843F-1602-4869-97CA-DFE3F66EAE5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data between 1-24
+- And </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DO NOT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> enter same value as entered in Size field</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ghadei, Manoj (Amphenol-AS)</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{09BD8738-3D36-431D-B35A-29E7E2BEDD5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Insert Only +ve Integer Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1A8F3652-3B9E-4DC0-BF07-5681286A49E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ghadei, Manoj (Amphenol-AS):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Enter todays date
@@ -869,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{3536843F-1602-4869-97CA-DFE3F66EAE5E}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D1BDFA33-53D0-43CE-BA28-9365D60672D2}">
       <text>
         <r>
           <rPr>
@@ -955,7 +1062,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -964,7 +1071,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Todays Date in mm/dd/YYYY format</t>
@@ -1057,7 +1164,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -1066,7 +1173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Todays Date in mm/dd/YYYY format</t>
@@ -1159,7 +1266,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -1168,7 +1275,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY format</t>
@@ -1261,7 +1368,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -1270,7 +1377,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY format</t>
@@ -1363,7 +1470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -1372,7 +1479,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY format</t>
@@ -1465,7 +1572,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -1474,7 +1581,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY format</t>
@@ -1567,7 +1674,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -1576,7 +1683,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYY format</t>
@@ -1669,7 +1776,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Ghadei, Manoj (Amphenol-AS):</t>
         </r>
@@ -1678,7 +1785,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Insert Date in mm/dd/YYYYy format</t>
@@ -1734,7 +1841,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="344">
   <si>
     <t>Name</t>
   </si>
@@ -2216,9 +2323,6 @@
     <t>Validation Date</t>
   </si>
   <si>
-    <t>Bath</t>
-  </si>
-  <si>
     <t>Test Description for ASST32</t>
   </si>
   <si>
@@ -2294,482 +2398,488 @@
     <t>Test Description for ASST39</t>
   </si>
   <si>
-    <t>ASST41</t>
+    <t>Test Description for ASST41</t>
+  </si>
+  <si>
+    <t>ASST42</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Test Description for ASST42</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>ASST49</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Test Description for ASST49</t>
+  </si>
+  <si>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>11/09/2019</t>
+  </si>
+  <si>
+    <t>Expected Date</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>11/20/2019</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB006b</t>
+  </si>
+  <si>
+    <t>ASSTHB006b</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>ASSTHB006a</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB006a</t>
+  </si>
+  <si>
+    <t>ASSTHB001</t>
+  </si>
+  <si>
+    <t>ASSTHB002</t>
+  </si>
+  <si>
+    <t>ASSTHB003</t>
+  </si>
+  <si>
+    <t>ASSTHB004</t>
+  </si>
+  <si>
+    <t>ASSTHB005</t>
+  </si>
+  <si>
+    <t>ASSTHB006</t>
+  </si>
+  <si>
+    <t>ASSTHB007</t>
+  </si>
+  <si>
+    <t>ASSTHB008</t>
+  </si>
+  <si>
+    <t>ASSTHB009</t>
+  </si>
+  <si>
+    <t>ASSTHB010</t>
+  </si>
+  <si>
+    <t>ASSTHB011</t>
+  </si>
+  <si>
+    <t>ASSTHB012</t>
+  </si>
+  <si>
+    <t>ASSTHB013</t>
+  </si>
+  <si>
+    <t>ASSTHB014</t>
+  </si>
+  <si>
+    <t>ASSTHB015</t>
+  </si>
+  <si>
+    <t>ASSTHB016</t>
+  </si>
+  <si>
+    <t>ASSTHB017</t>
+  </si>
+  <si>
+    <t>ASSTHB018</t>
+  </si>
+  <si>
+    <t>ASSTHB019</t>
+  </si>
+  <si>
+    <t>ASSTHB020</t>
+  </si>
+  <si>
+    <t>ASSTHB021</t>
+  </si>
+  <si>
+    <t>ASSTHB022</t>
+  </si>
+  <si>
+    <t>ASSTHB023</t>
+  </si>
+  <si>
+    <t>ASSTHB024</t>
+  </si>
+  <si>
+    <t>ASSTHB025</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Sterilizer</t>
+  </si>
+  <si>
+    <t>HTC10</t>
+  </si>
+  <si>
+    <t>HTC11</t>
+  </si>
+  <si>
+    <t>HTC12</t>
+  </si>
+  <si>
+    <t>HTC13</t>
+  </si>
+  <si>
+    <t>HTC14</t>
+  </si>
+  <si>
+    <t>HTC15</t>
+  </si>
+  <si>
+    <t>HTC16</t>
+  </si>
+  <si>
+    <t>HTC17</t>
+  </si>
+  <si>
+    <t>HTC18</t>
+  </si>
+  <si>
+    <t>HTC19</t>
+  </si>
+  <si>
+    <t>HTC20</t>
+  </si>
+  <si>
+    <t>HTC21</t>
+  </si>
+  <si>
+    <t>HTC22</t>
+  </si>
+  <si>
+    <t>HTC23</t>
+  </si>
+  <si>
+    <t>HTC24</t>
+  </si>
+  <si>
+    <t>HTC25</t>
+  </si>
+  <si>
+    <t>HTC01</t>
+  </si>
+  <si>
+    <t>HTC02</t>
+  </si>
+  <si>
+    <t>HTC03</t>
+  </si>
+  <si>
+    <t>HTC04</t>
+  </si>
+  <si>
+    <t>HTC05</t>
+  </si>
+  <si>
+    <t>HTC06</t>
+  </si>
+  <si>
+    <t>HTC07</t>
+  </si>
+  <si>
+    <t>HTC08</t>
+  </si>
+  <si>
+    <t>HTC09</t>
+  </si>
+  <si>
+    <t>AAS01</t>
+  </si>
+  <si>
+    <t>AAS02</t>
+  </si>
+  <si>
+    <t>AAS03</t>
+  </si>
+  <si>
+    <t>AAS04</t>
+  </si>
+  <si>
+    <t>AAS05</t>
+  </si>
+  <si>
+    <t>AAS06</t>
+  </si>
+  <si>
+    <t>AAS07</t>
+  </si>
+  <si>
+    <t>AAS08</t>
+  </si>
+  <si>
+    <t>AAS09</t>
+  </si>
+  <si>
+    <t>AAS10</t>
+  </si>
+  <si>
+    <t>AAS11</t>
+  </si>
+  <si>
+    <t>AAS12</t>
+  </si>
+  <si>
+    <t>AAS13</t>
+  </si>
+  <si>
+    <t>AAS14</t>
+  </si>
+  <si>
+    <t>AAS15</t>
+  </si>
+  <si>
+    <t>AAS16</t>
+  </si>
+  <si>
+    <t>AAS17</t>
+  </si>
+  <si>
+    <t>AAS18</t>
+  </si>
+  <si>
+    <t>AAS19</t>
+  </si>
+  <si>
+    <t>AAS20</t>
+  </si>
+  <si>
+    <t>AAS21</t>
+  </si>
+  <si>
+    <t>AAS22</t>
+  </si>
+  <si>
+    <t>AAS23</t>
+  </si>
+  <si>
+    <t>AAS24</t>
+  </si>
+  <si>
+    <t>AAS25</t>
+  </si>
+  <si>
+    <t>cu ft</t>
+  </si>
+  <si>
+    <t>cu in</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0001</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0002</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0003</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0004</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0005</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0006</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0007</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0008</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0009</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0010</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0011</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0012</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0013</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0014</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0015</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0016</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0017</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0018</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0019</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0020</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0021</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0022</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0023</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0024</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB0025</t>
+  </si>
+  <si>
+    <t>12/09/2019</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>AST41</t>
+  </si>
+  <si>
+    <t>ASTNew</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>Test Description for ASST41</t>
-  </si>
-  <si>
-    <t>ASST42</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Test Description for ASST42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Test Description</t>
-  </si>
-  <si>
-    <t>ASSTNew</t>
-  </si>
-  <si>
-    <t>ASST49</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Test Description for ASST49</t>
-  </si>
-  <si>
-    <t>11/11/2019</t>
-  </si>
-  <si>
-    <t>11/09/2019</t>
-  </si>
-  <si>
-    <t>Expected Date</t>
-  </si>
-  <si>
-    <t>10/19/2017</t>
-  </si>
-  <si>
-    <t>11/20/2019</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB006b</t>
-  </si>
-  <si>
-    <t>ASSTHB006b</t>
-  </si>
-  <si>
-    <t>6b</t>
-  </si>
-  <si>
-    <t>11/25/2019</t>
-  </si>
-  <si>
-    <t>ASSTHB006a</t>
-  </si>
-  <si>
-    <t>6a</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB006a</t>
-  </si>
-  <si>
-    <t>ASSTHB001</t>
-  </si>
-  <si>
-    <t>ASSTHB002</t>
-  </si>
-  <si>
-    <t>ASSTHB003</t>
-  </si>
-  <si>
-    <t>ASSTHB004</t>
-  </si>
-  <si>
-    <t>ASSTHB005</t>
-  </si>
-  <si>
-    <t>ASSTHB006</t>
-  </si>
-  <si>
-    <t>ASSTHB007</t>
-  </si>
-  <si>
-    <t>ASSTHB008</t>
-  </si>
-  <si>
-    <t>ASSTHB009</t>
-  </si>
-  <si>
-    <t>ASSTHB010</t>
-  </si>
-  <si>
-    <t>ASSTHB011</t>
-  </si>
-  <si>
-    <t>ASSTHB012</t>
-  </si>
-  <si>
-    <t>ASSTHB013</t>
-  </si>
-  <si>
-    <t>ASSTHB014</t>
-  </si>
-  <si>
-    <t>ASSTHB015</t>
-  </si>
-  <si>
-    <t>ASSTHB016</t>
-  </si>
-  <si>
-    <t>ASSTHB017</t>
-  </si>
-  <si>
-    <t>ASSTHB018</t>
-  </si>
-  <si>
-    <t>ASSTHB019</t>
-  </si>
-  <si>
-    <t>ASSTHB020</t>
-  </si>
-  <si>
-    <t>ASSTHB021</t>
-  </si>
-  <si>
-    <t>ASSTHB022</t>
-  </si>
-  <si>
-    <t>ASSTHB023</t>
-  </si>
-  <si>
-    <t>ASSTHB024</t>
-  </si>
-  <si>
-    <t>ASSTHB025</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Sterilizer</t>
-  </si>
-  <si>
-    <t>HTC10</t>
-  </si>
-  <si>
-    <t>HTC11</t>
-  </si>
-  <si>
-    <t>HTC12</t>
-  </si>
-  <si>
-    <t>HTC13</t>
-  </si>
-  <si>
-    <t>HTC14</t>
-  </si>
-  <si>
-    <t>HTC15</t>
-  </si>
-  <si>
-    <t>HTC16</t>
-  </si>
-  <si>
-    <t>HTC17</t>
-  </si>
-  <si>
-    <t>HTC18</t>
-  </si>
-  <si>
-    <t>HTC19</t>
-  </si>
-  <si>
-    <t>HTC20</t>
-  </si>
-  <si>
-    <t>HTC21</t>
-  </si>
-  <si>
-    <t>HTC22</t>
-  </si>
-  <si>
-    <t>HTC23</t>
-  </si>
-  <si>
-    <t>HTC24</t>
-  </si>
-  <si>
-    <t>HTC25</t>
-  </si>
-  <si>
-    <t>HTC01</t>
-  </si>
-  <si>
-    <t>HTC02</t>
-  </si>
-  <si>
-    <t>HTC03</t>
-  </si>
-  <si>
-    <t>HTC04</t>
-  </si>
-  <si>
-    <t>HTC05</t>
-  </si>
-  <si>
-    <t>HTC06</t>
-  </si>
-  <si>
-    <t>HTC07</t>
-  </si>
-  <si>
-    <t>HTC08</t>
-  </si>
-  <si>
-    <t>HTC09</t>
-  </si>
-  <si>
-    <t>AAS01</t>
-  </si>
-  <si>
-    <t>AAS02</t>
-  </si>
-  <si>
-    <t>AAS03</t>
-  </si>
-  <si>
-    <t>AAS04</t>
-  </si>
-  <si>
-    <t>AAS05</t>
-  </si>
-  <si>
-    <t>AAS06</t>
-  </si>
-  <si>
-    <t>AAS07</t>
-  </si>
-  <si>
-    <t>AAS08</t>
-  </si>
-  <si>
-    <t>AAS09</t>
-  </si>
-  <si>
-    <t>AAS10</t>
-  </si>
-  <si>
-    <t>AAS11</t>
-  </si>
-  <si>
-    <t>AAS12</t>
-  </si>
-  <si>
-    <t>AAS13</t>
-  </si>
-  <si>
-    <t>AAS14</t>
-  </si>
-  <si>
-    <t>AAS15</t>
-  </si>
-  <si>
-    <t>AAS16</t>
-  </si>
-  <si>
-    <t>AAS17</t>
-  </si>
-  <si>
-    <t>AAS18</t>
-  </si>
-  <si>
-    <t>AAS19</t>
-  </si>
-  <si>
-    <t>AAS20</t>
-  </si>
-  <si>
-    <t>AAS21</t>
-  </si>
-  <si>
-    <t>AAS22</t>
-  </si>
-  <si>
-    <t>AAS23</t>
-  </si>
-  <si>
-    <t>AAS24</t>
-  </si>
-  <si>
-    <t>AAS25</t>
-  </si>
-  <si>
-    <t>cu ft</t>
-  </si>
-  <si>
-    <t>cu in</t>
-  </si>
-  <si>
-    <t>11/30/2019</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0001</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0002</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0003</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0004</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0005</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0006</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0007</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0008</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0009</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0010</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0011</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0012</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0013</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0014</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0015</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0016</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0017</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0018</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0019</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0020</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0021</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0022</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0023</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0024</t>
-  </si>
-  <si>
-    <t>Test Description for ASSTHB0025</t>
+    <t>12/18/2019</t>
+  </si>
+  <si>
+    <t>ASSTHB008b</t>
+  </si>
+  <si>
+    <t>8b</t>
+  </si>
+  <si>
+    <t>Test Description for ASSTHB008b</t>
+  </si>
+  <si>
+    <t>12/26/2019</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2797,19 +2907,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -6862,12 +6959,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6882,7 +6979,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,13 +7030,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -6957,7 +7054,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -6966,7 +7063,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6981,7 +7078,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,13 +7129,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>165</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -7056,16 +7153,16 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7807,7 +7904,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7858,13 +7955,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="12" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>6</v>
@@ -7882,7 +7979,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7891,7 +7988,7 @@
         <v>142</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -7906,7 +8003,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7957,10 +8054,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -7981,7 +8078,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -7990,7 +8087,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -8005,7 +8102,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8056,10 +8153,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8080,7 +8177,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8089,7 +8186,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -8104,7 +8201,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8155,10 +8252,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8179,7 +8276,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>199</v>
+        <v>332</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8188,7 +8285,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8254,10 +8351,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8278,7 +8375,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8287,7 +8384,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -8353,10 +8450,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8377,7 +8474,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8386,7 +8483,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -8401,7 +8498,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,10 +8549,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8476,7 +8573,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>198</v>
+        <v>333</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8485,7 +8582,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8551,10 +8648,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8575,7 +8672,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8584,7 +8681,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -8599,7 +8696,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8650,10 +8747,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8674,7 +8771,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>198</v>
+        <v>333</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8683,7 +8780,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -8749,10 +8846,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -8773,7 +8870,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -8782,7 +8879,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -9019,7 +9116,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9068,10 +9165,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -9092,16 +9189,16 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +9212,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9164,10 +9261,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -9188,7 +9285,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -9197,7 +9294,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -9211,7 +9308,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9260,10 +9357,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>205</v>
+        <v>340</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
@@ -9284,7 +9381,7 @@
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -9293,7 +9390,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>203</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +9404,1017 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128BF6DC-296A-4801-8082-C6CA3D7BC606}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9357,31 +10464,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>156</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>157</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>48</v>
@@ -9390,919 +10497,83 @@
         <v>158</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>156</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>157</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>156</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>157</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="16" t="s">
         <v>309</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
